--- a/data/VGPs_NAM/36.xlsx
+++ b/data/VGPs_NAM/36.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj6Q3xlQiLrz10U0OUj3C74E0Sajg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjLI45s6FlDBs4irS+r8oSTYkkQNg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="83">
   <si>
     <t>Study level data</t>
   </si>
@@ -83,6 +83,9 @@
     <t>age</t>
   </si>
   <si>
+    <t>2_sigma</t>
+  </si>
+  <si>
     <t>min_age</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>kept_by_auth</t>
   </si>
   <si>
     <t>ref</t>
@@ -154,13 +160,19 @@
     <t>VGP_lon</t>
   </si>
   <si>
+    <t>2bdone</t>
+  </si>
+  <si>
+    <t>Lake Butte intrusion, deemed unreliable by Besse and Courtillot due to possible rotation, mostly volcanic, both normal and reverse polarities</t>
+  </si>
+  <si>
+    <t>Chadwick, 1970; Smedes and Protska, 1972; Harlan et al., 1996b; Hiza, 1999; Feeley et al., 2002; Feeley and Cosca, 2003; Kellogg and Harlan, 2008</t>
+  </si>
+  <si>
+    <t>Chadwick, 1970; Smedes and Protska, 1972; Harlan et al., 1996b; Hiza, 1999; Feeley et al., 2002; Feeley and Cosca, 2003; Kellogg and Harlan, 2009</t>
+  </si>
+  <si>
     <t>deemed unreliable by Besse and Courtillot due to possible rotation, mostly volcanic, both normal and reverse polarities</t>
-  </si>
-  <si>
-    <t>Chadwick, 1970; Smedes and Protska, 1972; Harlan et al., 1996b; Hiza, 1999; Feeley et al., 2002; Feeley and Cosca, 2003; Kellogg and Harlan, 2008</t>
-  </si>
-  <si>
-    <t>Chadwick, 1970; Smedes and Protska, 1972; Harlan et al., 1996b; Hiza, 1999; Feeley et al., 2002; Feeley and Cosca, 2003; Kellogg and Harlan, 2009</t>
   </si>
   <si>
     <t>Chadwick, 1970; Smedes and Protska, 1972; Harlan et al., 1996b; Hiza, 1999; Feeley et al., 2002; Feeley and Cosca, 2003; Kellogg and Harlan, 2010</t>
@@ -306,6 +318,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -314,7 +331,6 @@
       <color rgb="FF231F20"/>
       <name val="Docs-Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF231F20"/>
       <name val="Calibri"/>
@@ -324,12 +340,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -339,8 +361,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,37 +372,49 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -605,1985 +639,2135 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="30" width="9.38"/>
+    <col customWidth="1" min="1" max="32" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="X2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7">
         <v>44.5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>249.8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>42.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <v>13.5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="9">
         <v>6.2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>-83.1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="7">
         <v>326.3</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <v>13.5</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="9">
         <v>6.2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="9">
         <v>6.2</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="9">
         <v>6.2</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="9">
         <v>50.0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="9">
         <v>55.0</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="T3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="P4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="P5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="X6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="12">
         <v>389.0</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <v>44.518</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>-110.28</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="13">
         <v>8.0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="13">
         <v>170.0</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="14">
         <v>-40.8</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>659.0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="13">
         <v>2.2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="13">
         <v>67.3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="13">
         <v>94.1</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="9">
         <v>50.0</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="9">
         <v>55.0</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V7" s="7" t="s">
+      <c r="T7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" s="2"/>
+      <c r="V7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="11">
+      <c r="A8" s="15">
         <v>390.0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="13">
         <v>44.514</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>-110.27</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="13">
         <v>7.0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="13">
         <v>171.2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="14">
         <v>-39.8</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="13">
         <v>166.0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="13">
         <v>4.7</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="13">
         <v>66.9</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="13">
         <v>90.9</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="9">
         <v>50.0</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="9">
         <v>55.0</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>34</v>
+      <c r="T8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11">
+      <c r="A9" s="15">
         <v>615.0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="13">
         <v>44.509</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>-110.25</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="13">
         <v>7.0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="13">
         <v>327.5</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="15">
         <v>54.5</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>163.0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="13">
         <v>4.4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="13">
         <v>63.5</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="13">
         <v>150.1</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="9">
         <v>50.0</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="9">
         <v>55.0</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="7" t="s">
+      <c r="T9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="6" t="s">
-        <v>34</v>
+      <c r="W9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11">
+      <c r="A10" s="15">
         <v>395.0</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="13">
         <v>44.492</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>-110.03</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="13">
         <v>8.0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="13">
         <v>349.3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="15">
         <v>69.1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="13">
         <v>218.0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="13">
         <v>3.8</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="13">
         <v>79.2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="13">
         <v>212.9</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="9">
         <v>50.0</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="9">
         <v>55.0</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>34</v>
+      <c r="T10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11">
+      <c r="A11" s="15">
         <v>394.0</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="13">
         <v>44.495</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>-110.21</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <v>8.0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="13">
         <v>168.0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="14">
         <v>-53.4</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="13">
         <v>140.0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="13">
         <v>4.7</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="13">
         <v>76.0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="13">
         <v>115.2</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="9">
         <v>50.0</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="9">
         <v>55.0</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>34</v>
+      <c r="T11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11">
+      <c r="A12" s="15">
         <v>396.0</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="13">
         <v>44.493</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>-110.19</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <v>7.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="13">
         <v>160.6</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="14">
         <v>-45.6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="13">
         <v>59.3</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="13">
         <v>7.9</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="13">
         <v>66.6</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="13">
         <v>118.0</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="9">
         <v>50.0</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="9">
         <v>55.0</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>34</v>
+      <c r="T12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13">
+        <v>44.47</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-109.61</v>
+      </c>
+      <c r="D13" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>18.4</v>
+      </c>
+      <c r="F13" s="15">
+        <v>63.3</v>
+      </c>
+      <c r="G13" s="13">
+        <v>154.0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="13">
+        <v>76.9</v>
+      </c>
+      <c r="J13" s="13">
+        <v>332.3</v>
+      </c>
+      <c r="O13" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9">
-        <v>44.47</v>
-      </c>
-      <c r="C13" s="4">
-        <v>-109.61</v>
-      </c>
-      <c r="D13" s="9">
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13">
+        <v>44.459</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-109.84</v>
+      </c>
+      <c r="D14" s="13">
         <v>8.0</v>
       </c>
-      <c r="E13" s="9">
-        <v>18.4</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E14" s="13">
+        <v>341.0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>74.5</v>
+      </c>
+      <c r="G14" s="13">
+        <v>248.0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="I14" s="13">
+        <v>70.0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>222.6</v>
+      </c>
+      <c r="O14" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13">
+        <v>44.459</v>
+      </c>
+      <c r="C15" s="7">
+        <v>-109.84</v>
+      </c>
+      <c r="D15" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>336.8</v>
+      </c>
+      <c r="F15" s="15">
+        <v>54.5</v>
+      </c>
+      <c r="G15" s="13">
+        <v>624.0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2.2</v>
+      </c>
+      <c r="I15" s="13">
+        <v>69.9</v>
+      </c>
+      <c r="J15" s="13">
+        <v>140.2</v>
+      </c>
+      <c r="O15" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13">
+        <v>44.459</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-109.84</v>
+      </c>
+      <c r="D16" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>356.8</v>
+      </c>
+      <c r="F16" s="15">
+        <v>75.5</v>
+      </c>
+      <c r="G16" s="13">
+        <v>539.0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>71.7</v>
+      </c>
+      <c r="J16" s="13">
+        <v>245.5</v>
+      </c>
+      <c r="O16" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15">
+        <v>618.0</v>
+      </c>
+      <c r="B17" s="13">
+        <v>44.946</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-110.45</v>
+      </c>
+      <c r="D17" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>18.9</v>
+      </c>
+      <c r="F17" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="G17" s="13">
+        <v>126.0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>4.1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>64.1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>34.3</v>
+      </c>
+      <c r="O17" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15">
+        <v>620.0</v>
+      </c>
+      <c r="B18" s="13">
+        <v>44.946</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-110.45</v>
+      </c>
+      <c r="D18" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>25.3</v>
+      </c>
+      <c r="F18" s="15">
+        <v>40.2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>42.9</v>
+      </c>
+      <c r="H18" s="17">
+        <v>8.6</v>
+      </c>
+      <c r="I18" s="13">
+        <v>62.1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>29.5</v>
+      </c>
+      <c r="O18" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15">
+        <v>622.0</v>
+      </c>
+      <c r="B19" s="13">
+        <v>44.945</v>
+      </c>
+      <c r="C19" s="7">
+        <v>-110.45</v>
+      </c>
+      <c r="D19" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="F19" s="15">
+        <v>55.5</v>
+      </c>
+      <c r="G19" s="13">
+        <v>40.9</v>
+      </c>
+      <c r="H19" s="16">
+        <v>10.6</v>
+      </c>
+      <c r="I19" s="13">
+        <v>79.2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>28.9</v>
+      </c>
+      <c r="O19" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15">
+        <v>558.0</v>
+      </c>
+      <c r="B20" s="13">
+        <v>44.421</v>
+      </c>
+      <c r="C20" s="7">
+        <v>-110.28</v>
+      </c>
+      <c r="D20" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>350.9</v>
+      </c>
+      <c r="F20" s="15">
+        <v>61.5</v>
+      </c>
+      <c r="G20" s="13">
+        <v>108.0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="I20" s="13">
+        <v>83.2</v>
+      </c>
+      <c r="J20" s="13">
+        <v>151.3</v>
+      </c>
+      <c r="O20" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="15">
+        <v>557.0</v>
+      </c>
+      <c r="B21" s="13">
+        <v>44.416</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-110.28</v>
+      </c>
+      <c r="D21" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>351.1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>66.7</v>
+      </c>
+      <c r="G21" s="13">
+        <v>46.6</v>
+      </c>
+      <c r="H21" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="I21" s="13">
+        <v>82.2</v>
+      </c>
+      <c r="J21" s="13">
+        <v>201.4</v>
+      </c>
+      <c r="O21" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="15">
+        <v>448.0</v>
+      </c>
+      <c r="B22" s="13">
+        <v>44.956</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-110.45</v>
+      </c>
+      <c r="D22" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>285.4</v>
+      </c>
+      <c r="F22" s="15">
+        <v>51.4</v>
+      </c>
+      <c r="G22" s="13">
+        <v>217.0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>4.1</v>
+      </c>
+      <c r="I22" s="13">
+        <v>32.3</v>
+      </c>
+      <c r="J22" s="13">
+        <v>174.3</v>
+      </c>
+      <c r="O22" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="15">
+        <v>621.0</v>
+      </c>
+      <c r="B23" s="13">
+        <v>44.944</v>
+      </c>
+      <c r="C23" s="7">
+        <v>-110.46</v>
+      </c>
+      <c r="D23" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>285.9</v>
+      </c>
+      <c r="F23" s="15">
+        <v>51.4</v>
+      </c>
+      <c r="G23" s="13">
+        <v>147.0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="I23" s="13">
+        <v>32.6</v>
+      </c>
+      <c r="J23" s="13">
+        <v>174.1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="15">
+        <v>628.0</v>
+      </c>
+      <c r="B24" s="13">
+        <v>44.877</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D24" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>359.7</v>
+      </c>
+      <c r="F24" s="15">
+        <v>52.3</v>
+      </c>
+      <c r="G24" s="13">
+        <v>203.0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="I24" s="13">
+        <v>78.0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>71.0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="15">
+        <v>635.0</v>
+      </c>
+      <c r="B25" s="13">
+        <v>44.877</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D25" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>333.9</v>
+      </c>
+      <c r="F25" s="15">
+        <v>78.8</v>
+      </c>
+      <c r="G25" s="13">
+        <v>117.0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="I25" s="13">
+        <v>62.9</v>
+      </c>
+      <c r="J25" s="13">
+        <v>228.9</v>
+      </c>
+      <c r="O25" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="15">
+        <v>617.0</v>
+      </c>
+      <c r="B26" s="13">
+        <v>44.954</v>
+      </c>
+      <c r="C26" s="7">
+        <v>-110.53</v>
+      </c>
+      <c r="D26" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>164.5</v>
+      </c>
+      <c r="F26" s="14">
+        <v>-48.6</v>
+      </c>
+      <c r="G26" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="I26" s="13">
+        <v>61.8</v>
+      </c>
+      <c r="J26" s="13">
+        <v>126.9</v>
+      </c>
+      <c r="O26" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="15">
+        <v>624.0</v>
+      </c>
+      <c r="B27" s="13">
+        <v>44.945</v>
+      </c>
+      <c r="C27" s="7">
+        <v>-110.52</v>
+      </c>
+      <c r="D27" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>170.2</v>
+      </c>
+      <c r="F27" s="14">
+        <v>-52.6</v>
+      </c>
+      <c r="G27" s="13">
+        <v>606.0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>76.1</v>
+      </c>
+      <c r="J27" s="13">
+        <v>105.7</v>
+      </c>
+      <c r="O27" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="15">
+        <v>625.0</v>
+      </c>
+      <c r="B28" s="13">
+        <v>44.945</v>
+      </c>
+      <c r="C28" s="7">
+        <v>-110.53</v>
+      </c>
+      <c r="D28" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>176.2</v>
+      </c>
+      <c r="F28" s="14">
+        <v>-47.4</v>
+      </c>
+      <c r="G28" s="13">
+        <v>444.0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="I28" s="13">
+        <v>81.2</v>
+      </c>
+      <c r="J28" s="13">
+        <v>73.3</v>
+      </c>
+      <c r="O28" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="15">
+        <v>627.0</v>
+      </c>
+      <c r="B29" s="13">
+        <v>44.951</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-110.51</v>
+      </c>
+      <c r="D29" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>343.8</v>
+      </c>
+      <c r="F29" s="15">
+        <v>30.6</v>
+      </c>
+      <c r="G29" s="13">
+        <v>115.0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="I29" s="13">
+        <v>58.4</v>
+      </c>
+      <c r="J29" s="13">
+        <v>100.2</v>
+      </c>
+      <c r="O29" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="15">
+        <v>616.0</v>
+      </c>
+      <c r="B30" s="13">
+        <v>44.934</v>
+      </c>
+      <c r="C30" s="7">
+        <v>-110.71</v>
+      </c>
+      <c r="D30" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="F30" s="15">
+        <v>67.8</v>
+      </c>
+      <c r="G30" s="13">
+        <v>36.0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="I30" s="13">
+        <v>68.9</v>
+      </c>
+      <c r="J30" s="13">
+        <v>312.3</v>
+      </c>
+      <c r="O30" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="15">
+        <v>923.0</v>
+      </c>
+      <c r="B31" s="13">
+        <v>44.821</v>
+      </c>
+      <c r="C31" s="7">
+        <v>-110.45</v>
+      </c>
+      <c r="D31" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>323.5</v>
+      </c>
+      <c r="F31" s="15">
+        <v>43.3</v>
+      </c>
+      <c r="G31" s="13">
         <v>63.3</v>
       </c>
-      <c r="G13" s="9">
-        <v>154.0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="I13" s="9">
-        <v>76.9</v>
-      </c>
-      <c r="J13" s="9">
-        <v>332.3</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="H31" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="I31" s="13">
+        <v>54.7</v>
+      </c>
+      <c r="J31" s="13">
+        <v>138.2</v>
+      </c>
+      <c r="O31" s="9">
         <v>50.0</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R31" s="9">
         <v>55.0</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="9">
-        <v>44.459</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-109.84</v>
-      </c>
-      <c r="D14" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>341.0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>74.5</v>
-      </c>
-      <c r="G14" s="9">
-        <v>248.0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="T31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="13">
+        <v>45.222</v>
+      </c>
+      <c r="C32" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D32" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>172.5</v>
+      </c>
+      <c r="F32" s="14">
+        <v>-59.5</v>
+      </c>
+      <c r="G32" s="13">
+        <v>481.0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="I32" s="13">
+        <v>82.6</v>
+      </c>
+      <c r="J32" s="13">
+        <v>120.7</v>
+      </c>
+      <c r="O32" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="13">
+        <v>45.222</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D33" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>161.8</v>
+      </c>
+      <c r="F33" s="14">
+        <v>-64.0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>203.0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="I33" s="13">
+        <v>77.3</v>
+      </c>
+      <c r="J33" s="13">
+        <v>168.5</v>
+      </c>
+      <c r="O33" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="13">
+        <v>45.222</v>
+      </c>
+      <c r="C34" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D34" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>162.9</v>
+      </c>
+      <c r="F34" s="14">
+        <v>-60.8</v>
+      </c>
+      <c r="G34" s="13">
+        <v>56.0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="I34" s="13">
+        <v>77.2</v>
+      </c>
+      <c r="J34" s="13">
+        <v>150.5</v>
+      </c>
+      <c r="O34" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="13">
+        <v>45.218</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-110.23</v>
+      </c>
+      <c r="D35" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>151.1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>-64.7</v>
+      </c>
+      <c r="G35" s="13">
+        <v>145.0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="I35" s="13">
         <v>70.0</v>
       </c>
-      <c r="J14" s="9">
-        <v>222.6</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="J35" s="13">
+        <v>174.1</v>
+      </c>
+      <c r="O35" s="9">
         <v>50.0</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R35" s="9">
         <v>55.0</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="9">
-        <v>44.459</v>
-      </c>
-      <c r="C15" s="4">
-        <v>-109.84</v>
-      </c>
-      <c r="D15" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>336.8</v>
-      </c>
-      <c r="F15" s="11">
-        <v>54.5</v>
-      </c>
-      <c r="G15" s="9">
-        <v>624.0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2.2</v>
-      </c>
-      <c r="I15" s="9">
-        <v>69.9</v>
-      </c>
-      <c r="J15" s="9">
-        <v>140.2</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="T35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="13">
+        <v>45.217</v>
+      </c>
+      <c r="C36" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D36" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>160.1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>-63.7</v>
+      </c>
+      <c r="G36" s="13">
+        <v>49.0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="I36" s="13">
+        <v>76.0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>167.4</v>
+      </c>
+      <c r="O36" s="9">
         <v>50.0</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R36" s="9">
         <v>55.0</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="9">
-        <v>44.459</v>
-      </c>
-      <c r="C16" s="4">
-        <v>-109.84</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="T36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="13">
+        <v>45.213</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D37" s="13">
         <v>10.0</v>
       </c>
-      <c r="E16" s="9">
-        <v>356.8</v>
-      </c>
-      <c r="F16" s="11">
-        <v>75.5</v>
-      </c>
-      <c r="G16" s="9">
-        <v>539.0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="I16" s="9">
-        <v>71.7</v>
-      </c>
-      <c r="J16" s="9">
-        <v>245.5</v>
-      </c>
-      <c r="O16" s="6">
+      <c r="E37" s="13">
+        <v>152.0</v>
+      </c>
+      <c r="F37" s="14">
+        <v>-65.3</v>
+      </c>
+      <c r="G37" s="13">
+        <v>157.0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="I37" s="13">
+        <v>70.6</v>
+      </c>
+      <c r="J37" s="13">
+        <v>176.3</v>
+      </c>
+      <c r="O37" s="9">
         <v>50.0</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R37" s="9">
         <v>55.0</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11">
-        <v>618.0</v>
-      </c>
-      <c r="B17" s="9">
-        <v>44.946</v>
-      </c>
-      <c r="C17" s="4">
-        <v>-110.45</v>
-      </c>
-      <c r="D17" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>18.9</v>
-      </c>
-      <c r="F17" s="11">
-        <v>38.5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>126.0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>4.1</v>
-      </c>
-      <c r="I17" s="9">
-        <v>64.1</v>
-      </c>
-      <c r="J17" s="9">
-        <v>34.3</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="T37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="13">
+        <v>45.215</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-110.22</v>
+      </c>
+      <c r="D38" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>178.2</v>
+      </c>
+      <c r="F38" s="14">
+        <v>-72.3</v>
+      </c>
+      <c r="G38" s="13">
+        <v>186.0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="I38" s="13">
+        <v>72.3</v>
+      </c>
+      <c r="J38" s="13">
+        <v>178.2</v>
+      </c>
+      <c r="O38" s="9">
         <v>50.0</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R38" s="9">
         <v>55.0</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11">
-        <v>620.0</v>
-      </c>
-      <c r="B18" s="9">
-        <v>44.946</v>
-      </c>
-      <c r="C18" s="4">
-        <v>-110.45</v>
-      </c>
-      <c r="D18" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>25.3</v>
-      </c>
-      <c r="F18" s="11">
-        <v>40.2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>42.9</v>
-      </c>
-      <c r="H18" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="I18" s="9">
-        <v>62.1</v>
-      </c>
-      <c r="J18" s="9">
-        <v>29.5</v>
-      </c>
-      <c r="O18" s="6">
+      <c r="T38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="13">
+        <v>45.218</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-110.23</v>
+      </c>
+      <c r="D39" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>157.0</v>
+      </c>
+      <c r="F39" s="14">
+        <v>-67.1</v>
+      </c>
+      <c r="G39" s="13">
+        <v>637.0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="I39" s="13">
+        <v>73.9</v>
+      </c>
+      <c r="J39" s="13">
+        <v>184.6</v>
+      </c>
+      <c r="O39" s="9">
         <v>50.0</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9">
         <v>45.0</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R39" s="9">
         <v>55.0</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11">
-        <v>622.0</v>
-      </c>
-      <c r="B19" s="9">
-        <v>44.945</v>
-      </c>
-      <c r="C19" s="4">
-        <v>-110.45</v>
-      </c>
-      <c r="D19" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="F19" s="11">
-        <v>55.5</v>
-      </c>
-      <c r="G19" s="9">
-        <v>40.9</v>
-      </c>
-      <c r="H19" s="12">
-        <v>10.6</v>
-      </c>
-      <c r="I19" s="9">
-        <v>79.2</v>
-      </c>
-      <c r="J19" s="9">
-        <v>28.9</v>
-      </c>
-      <c r="O19" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11">
-        <v>558.0</v>
-      </c>
-      <c r="B20" s="9">
-        <v>44.421</v>
-      </c>
-      <c r="C20" s="4">
-        <v>-110.28</v>
-      </c>
-      <c r="D20" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>350.9</v>
-      </c>
-      <c r="F20" s="11">
-        <v>61.5</v>
-      </c>
-      <c r="G20" s="9">
-        <v>108.0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="I20" s="9">
-        <v>83.2</v>
-      </c>
-      <c r="J20" s="9">
-        <v>151.3</v>
-      </c>
-      <c r="O20" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
-        <v>557.0</v>
-      </c>
-      <c r="B21" s="9">
-        <v>44.416</v>
-      </c>
-      <c r="C21" s="4">
-        <v>-110.28</v>
-      </c>
-      <c r="D21" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>351.1</v>
-      </c>
-      <c r="F21" s="11">
-        <v>66.7</v>
-      </c>
-      <c r="G21" s="9">
-        <v>46.6</v>
-      </c>
-      <c r="H21" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="I21" s="9">
-        <v>82.2</v>
-      </c>
-      <c r="J21" s="9">
-        <v>201.4</v>
-      </c>
-      <c r="O21" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11">
-        <v>448.0</v>
-      </c>
-      <c r="B22" s="9">
-        <v>44.956</v>
-      </c>
-      <c r="C22" s="4">
-        <v>-110.45</v>
-      </c>
-      <c r="D22" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>285.4</v>
-      </c>
-      <c r="F22" s="11">
-        <v>51.4</v>
-      </c>
-      <c r="G22" s="9">
-        <v>217.0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>4.1</v>
-      </c>
-      <c r="I22" s="9">
-        <v>32.3</v>
-      </c>
-      <c r="J22" s="9">
-        <v>174.3</v>
-      </c>
-      <c r="O22" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11">
-        <v>621.0</v>
-      </c>
-      <c r="B23" s="9">
-        <v>44.944</v>
-      </c>
-      <c r="C23" s="4">
-        <v>-110.46</v>
-      </c>
-      <c r="D23" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>285.9</v>
-      </c>
-      <c r="F23" s="11">
-        <v>51.4</v>
-      </c>
-      <c r="G23" s="9">
-        <v>147.0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>4.6</v>
-      </c>
-      <c r="I23" s="9">
-        <v>32.6</v>
-      </c>
-      <c r="J23" s="9">
-        <v>174.1</v>
-      </c>
-      <c r="O23" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11">
-        <v>628.0</v>
-      </c>
-      <c r="B24" s="9">
-        <v>44.877</v>
-      </c>
-      <c r="C24" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D24" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>359.7</v>
-      </c>
-      <c r="F24" s="11">
-        <v>52.3</v>
-      </c>
-      <c r="G24" s="9">
-        <v>203.0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="I24" s="9">
-        <v>78.0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>71.0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="11">
-        <v>635.0</v>
-      </c>
-      <c r="B25" s="9">
-        <v>44.877</v>
-      </c>
-      <c r="C25" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D25" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>333.9</v>
-      </c>
-      <c r="F25" s="11">
-        <v>78.8</v>
-      </c>
-      <c r="G25" s="9">
-        <v>117.0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>6.7</v>
-      </c>
-      <c r="I25" s="9">
-        <v>62.9</v>
-      </c>
-      <c r="J25" s="9">
-        <v>228.9</v>
-      </c>
-      <c r="O25" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="11">
-        <v>617.0</v>
-      </c>
-      <c r="B26" s="9">
-        <v>44.954</v>
-      </c>
-      <c r="C26" s="4">
-        <v>-110.53</v>
-      </c>
-      <c r="D26" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>164.5</v>
-      </c>
-      <c r="F26" s="10">
-        <v>-48.6</v>
-      </c>
-      <c r="G26" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>4.6</v>
-      </c>
-      <c r="I26" s="9">
-        <v>61.8</v>
-      </c>
-      <c r="J26" s="9">
-        <v>126.9</v>
-      </c>
-      <c r="O26" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="11">
-        <v>624.0</v>
-      </c>
-      <c r="B27" s="9">
-        <v>44.945</v>
-      </c>
-      <c r="C27" s="4">
-        <v>-110.52</v>
-      </c>
-      <c r="D27" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>170.2</v>
-      </c>
-      <c r="F27" s="10">
-        <v>-52.6</v>
-      </c>
-      <c r="G27" s="9">
-        <v>606.0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>76.1</v>
-      </c>
-      <c r="J27" s="9">
-        <v>105.7</v>
-      </c>
-      <c r="O27" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="11">
-        <v>625.0</v>
-      </c>
-      <c r="B28" s="9">
-        <v>44.945</v>
-      </c>
-      <c r="C28" s="4">
-        <v>-110.53</v>
-      </c>
-      <c r="D28" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E28" s="9">
-        <v>176.2</v>
-      </c>
-      <c r="F28" s="10">
-        <v>-47.4</v>
-      </c>
-      <c r="G28" s="9">
-        <v>444.0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="I28" s="9">
-        <v>81.2</v>
-      </c>
-      <c r="J28" s="9">
-        <v>73.3</v>
-      </c>
-      <c r="O28" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="11">
-        <v>627.0</v>
-      </c>
-      <c r="B29" s="9">
-        <v>44.951</v>
-      </c>
-      <c r="C29" s="4">
-        <v>-110.51</v>
-      </c>
-      <c r="D29" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="E29" s="9">
-        <v>343.8</v>
-      </c>
-      <c r="F29" s="11">
-        <v>30.6</v>
-      </c>
-      <c r="G29" s="9">
-        <v>115.0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="I29" s="9">
-        <v>58.4</v>
-      </c>
-      <c r="J29" s="9">
-        <v>100.2</v>
-      </c>
-      <c r="O29" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="11">
-        <v>616.0</v>
-      </c>
-      <c r="B30" s="9">
-        <v>44.934</v>
-      </c>
-      <c r="C30" s="4">
-        <v>-110.71</v>
-      </c>
-      <c r="D30" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>30.5</v>
-      </c>
-      <c r="F30" s="11">
-        <v>67.8</v>
-      </c>
-      <c r="G30" s="9">
-        <v>36.0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>7.9</v>
-      </c>
-      <c r="I30" s="9">
-        <v>68.9</v>
-      </c>
-      <c r="J30" s="9">
-        <v>312.3</v>
-      </c>
-      <c r="O30" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="11">
-        <v>923.0</v>
-      </c>
-      <c r="B31" s="9">
-        <v>44.821</v>
-      </c>
-      <c r="C31" s="4">
-        <v>-110.45</v>
-      </c>
-      <c r="D31" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="E31" s="9">
-        <v>323.5</v>
-      </c>
-      <c r="F31" s="11">
-        <v>43.3</v>
-      </c>
-      <c r="G31" s="9">
-        <v>63.3</v>
-      </c>
-      <c r="H31" s="9">
-        <v>6.6</v>
-      </c>
-      <c r="I31" s="9">
-        <v>54.7</v>
-      </c>
-      <c r="J31" s="9">
-        <v>138.2</v>
-      </c>
-      <c r="O31" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="9">
-        <v>45.222</v>
-      </c>
-      <c r="C32" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D32" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="E32" s="9">
-        <v>172.5</v>
-      </c>
-      <c r="F32" s="10">
-        <v>-59.5</v>
-      </c>
-      <c r="G32" s="9">
-        <v>481.0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="I32" s="9">
-        <v>82.6</v>
-      </c>
-      <c r="J32" s="9">
-        <v>120.7</v>
-      </c>
-      <c r="O32" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="9">
-        <v>45.222</v>
-      </c>
-      <c r="C33" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D33" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>161.8</v>
-      </c>
-      <c r="F33" s="10">
-        <v>-64.0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>203.0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="I33" s="9">
-        <v>77.3</v>
-      </c>
-      <c r="J33" s="9">
-        <v>168.5</v>
-      </c>
-      <c r="O33" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W33" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="9">
-        <v>45.222</v>
-      </c>
-      <c r="C34" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D34" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E34" s="9">
-        <v>162.9</v>
-      </c>
-      <c r="F34" s="10">
-        <v>-60.8</v>
-      </c>
-      <c r="G34" s="9">
-        <v>56.0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>5.9</v>
-      </c>
-      <c r="I34" s="9">
-        <v>77.2</v>
-      </c>
-      <c r="J34" s="9">
-        <v>150.5</v>
-      </c>
-      <c r="O34" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P34" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="9">
-        <v>45.218</v>
-      </c>
-      <c r="C35" s="4">
-        <v>-110.23</v>
-      </c>
-      <c r="D35" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="E35" s="9">
-        <v>151.1</v>
-      </c>
-      <c r="F35" s="10">
-        <v>-64.7</v>
-      </c>
-      <c r="G35" s="9">
-        <v>145.0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>4.3</v>
-      </c>
-      <c r="I35" s="9">
-        <v>70.0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>174.1</v>
-      </c>
-      <c r="O35" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="W35" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="9">
-        <v>45.217</v>
-      </c>
-      <c r="C36" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D36" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>160.1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>-63.7</v>
-      </c>
-      <c r="G36" s="9">
-        <v>49.0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>6.3</v>
-      </c>
-      <c r="I36" s="9">
-        <v>76.0</v>
-      </c>
-      <c r="J36" s="9">
-        <v>167.4</v>
-      </c>
-      <c r="O36" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="W36" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="9">
-        <v>45.213</v>
-      </c>
-      <c r="C37" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D37" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E37" s="9">
-        <v>152.0</v>
-      </c>
-      <c r="F37" s="10">
-        <v>-65.3</v>
-      </c>
-      <c r="G37" s="9">
-        <v>157.0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="I37" s="9">
-        <v>70.6</v>
-      </c>
-      <c r="J37" s="9">
-        <v>176.3</v>
-      </c>
-      <c r="O37" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W37" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="9">
-        <v>45.215</v>
-      </c>
-      <c r="C38" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="D38" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E38" s="9">
-        <v>178.2</v>
-      </c>
-      <c r="F38" s="10">
-        <v>-72.3</v>
-      </c>
-      <c r="G38" s="9">
-        <v>186.0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="I38" s="9">
-        <v>72.3</v>
-      </c>
-      <c r="J38" s="9">
-        <v>178.2</v>
-      </c>
-      <c r="O38" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P38" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V38" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="9">
-        <v>45.218</v>
-      </c>
-      <c r="C39" s="4">
-        <v>-110.23</v>
-      </c>
-      <c r="D39" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>157.0</v>
-      </c>
-      <c r="F39" s="10">
-        <v>-67.1</v>
-      </c>
-      <c r="G39" s="9">
-        <v>637.0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="I39" s="9">
-        <v>73.9</v>
-      </c>
-      <c r="J39" s="9">
-        <v>184.6</v>
-      </c>
-      <c r="O39" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P39" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V39" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>34</v>
+      <c r="T39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="11"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="11"/>
+      <c r="A41" s="15"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="11"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="11"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="11"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
